--- a/cases/NorthSea/InstalledCapacity/ERAA_InstalledCapacity.xlsx
+++ b/cases/NorthSea/InstalledCapacity/ERAA_InstalledCapacity.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea\InstalledCapacity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CE38AF-93CA-4594-989F-C0853091A9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D716603-C378-410A-8C8B-BBB528BF6CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="28770" windowHeight="15300" xr2:uid="{FA100232-5CE4-4E54-8B37-51E6879CF7F2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA100232-5CE4-4E54-8B37-51E6879CF7F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="InstalledCapacitiesNL" sheetId="2" r:id="rId2"/>
-    <sheet name="CalculationAvgCapFactor" sheetId="3" r:id="rId3"/>
+    <sheet name="To Word" sheetId="4" r:id="rId2"/>
+    <sheet name="InstalledCapacitiesNL" sheetId="2" r:id="rId3"/>
+    <sheet name="CalculationAvgCapFactor" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="130">
   <si>
     <t>Nuclear</t>
   </si>
@@ -422,14 +445,21 @@
   </si>
   <si>
     <t>NL00</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>GWh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -474,13 +504,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,7 +838,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP36" sqref="AP36"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6510,6 +6546,1816 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BA8A62-7474-4D6F-BD08-9F2EA08E4F48}">
+  <dimension ref="A1:P43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2077</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>5195</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>486</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>4612.1000000000004</v>
+      </c>
+      <c r="D3" s="6">
+        <v>29573.720054347828</v>
+      </c>
+      <c r="E3" s="6">
+        <v>701.93557881714196</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>31962.460001095998</v>
+      </c>
+      <c r="H3" s="7">
+        <v>3956</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1513</v>
+      </c>
+      <c r="J3" s="7">
+        <v>3338</v>
+      </c>
+      <c r="K3" s="7">
+        <v>2602</v>
+      </c>
+      <c r="L3" s="7">
+        <v>766</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1325</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>4989.3999999999996</v>
+      </c>
+      <c r="D4" s="6">
+        <v>110000</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4728.8811601077286</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2550.56</v>
+      </c>
+      <c r="G4" s="6">
+        <v>26220.702505943002</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>5800</v>
+      </c>
+      <c r="D5" s="6">
+        <v>29712</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2516.900000000001</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1003.5</v>
+      </c>
+      <c r="G5" s="6">
+        <v>42737.299999980001</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>11354.999</v>
+      </c>
+      <c r="D6" s="6">
+        <v>200000</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5384.0139755756354</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3494</v>
+      </c>
+      <c r="G6" s="6">
+        <v>30790.59197953</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>706.62499999999955</v>
+      </c>
+      <c r="D7" s="6">
+        <v>12034.289999999999</v>
+      </c>
+      <c r="E7" s="6">
+        <v>7.26</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>10224.110000036</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>1379</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5874.9</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>50</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3.5620584590000002</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>258578.02197802198</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>416759</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>57825336.631951004</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>5750</v>
+      </c>
+      <c r="D11" s="6">
+        <v>629879.78899846424</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>26380</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" ref="C15:P15" si="0">C2/1000</f>
+        <v>2.077</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="0"/>
+        <v>5.1950000000000003</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="N15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" ref="C16:C24" si="1">C3/1000</f>
+        <v>4.6121000000000008</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" ref="D16:P16" si="2">D3/1000</f>
+        <v>29.573720054347827</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.70193557881714197</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="2"/>
+        <v>31.962460001095998</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="2"/>
+        <v>3.956</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5129999999999999</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="2"/>
+        <v>3.3380000000000001</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="2"/>
+        <v>2.6019999999999999</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" si="2"/>
+        <v>1.325</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="1"/>
+        <v>4.9893999999999998</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" ref="D17:P17" si="3">D4/1000</f>
+        <v>110</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="3"/>
+        <v>4.7288811601077283</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="3"/>
+        <v>2.5505599999999999</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="3"/>
+        <v>26.220702505943002</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="1"/>
+        <v>5.8</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" ref="D18:P18" si="4">D5/1000</f>
+        <v>29.712</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="4"/>
+        <v>2.516900000000001</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0035000000000001</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="4"/>
+        <v>42.737299999980003</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="1"/>
+        <v>11.354998999999999</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" ref="D19:P19" si="5">D6/1000</f>
+        <v>200</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="5"/>
+        <v>5.3840139755756358</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="5"/>
+        <v>3.4940000000000002</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="5"/>
+        <v>30.790591979529999</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="1"/>
+        <v>0.7066249999999995</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" ref="D20:P20" si="6">D7/1000</f>
+        <v>12.034289999999999</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="6"/>
+        <v>7.26E-3</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="6"/>
+        <v>10.224110000036001</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="1"/>
+        <v>1.379</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" ref="D21:P21" si="7">D8/1000</f>
+        <v>5.8748999999999993</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="7"/>
+        <v>3.5620584590000002E-3</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" ref="D22:P22" si="8">D9/1000</f>
+        <v>258.57802197802198</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" ref="D23:P23" si="9">D10/1000</f>
+        <v>416.75900000000001</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="9"/>
+        <v>57825.336631951002</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="1"/>
+        <v>5.75</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" ref="D24:P24" si="10">D11/1000</f>
+        <v>629.87978899846428</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="10"/>
+        <v>26.38</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" cm="1">
+        <f t="array" ref="A28:K43">TRANSPOSE(A14:P24)</f>
+        <v>0</v>
+      </c>
+      <c r="B28" t="str">
+        <v>GW</v>
+      </c>
+      <c r="C28" t="str">
+        <v>GW</v>
+      </c>
+      <c r="D28" t="str">
+        <v>GW</v>
+      </c>
+      <c r="E28" t="str">
+        <v>GW</v>
+      </c>
+      <c r="F28" t="str">
+        <v>GW</v>
+      </c>
+      <c r="G28" t="str">
+        <v>GW</v>
+      </c>
+      <c r="H28" t="str">
+        <v>GW</v>
+      </c>
+      <c r="I28" t="str">
+        <v>GWh</v>
+      </c>
+      <c r="J28" t="str">
+        <v>GWh</v>
+      </c>
+      <c r="K28" t="str">
+        <v>GWh</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Nuclear</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Gas</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Wind Onshore</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Wind Offshore</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Solar (Photovoltaic)</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Others renewable</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Others non-renewable</v>
+      </c>
+      <c r="I29" t="str">
+        <v>Hydro - Reservoir</v>
+      </c>
+      <c r="J29" t="str">
+        <v>Hydro - Pump Storage Open Loop</v>
+      </c>
+      <c r="K29" t="str">
+        <v>Hydro - Pump Storage Closed Loop</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <v>BE00</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2.077</v>
+      </c>
+      <c r="C30" s="4">
+        <v>4.6121000000000008</v>
+      </c>
+      <c r="D30" s="4">
+        <v>4.9893999999999998</v>
+      </c>
+      <c r="E30" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="F30" s="4">
+        <v>11.354998999999999</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.7066249999999995</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1.379</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <v>DE00</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>29.573720054347827</v>
+      </c>
+      <c r="D31" s="4">
+        <v>110</v>
+      </c>
+      <c r="E31" s="4">
+        <v>29.712</v>
+      </c>
+      <c r="F31" s="4">
+        <v>200</v>
+      </c>
+      <c r="G31" s="4">
+        <v>12.034289999999999</v>
+      </c>
+      <c r="H31" s="4">
+        <v>5.8748999999999993</v>
+      </c>
+      <c r="I31" s="4">
+        <v>258.57802197802198</v>
+      </c>
+      <c r="J31" s="4">
+        <v>416.75900000000001</v>
+      </c>
+      <c r="K31" s="4">
+        <v>629.87978899846428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <v>DKW1</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.70193557881714197</v>
+      </c>
+      <c r="D32" s="4">
+        <v>4.7288811601077283</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2.516900000000001</v>
+      </c>
+      <c r="F32" s="4">
+        <v>5.3840139755756358</v>
+      </c>
+      <c r="G32" s="4">
+        <v>7.26E-3</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <v>NOS0</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2.5505599999999999</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1.0035000000000001</v>
+      </c>
+      <c r="F33" s="4">
+        <v>3.4940000000000002</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>57825.336631951002</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <v>UK00</v>
+      </c>
+      <c r="B34" s="4">
+        <v>5.1950000000000003</v>
+      </c>
+      <c r="C34" s="4">
+        <v>31.962460001095998</v>
+      </c>
+      <c r="D34" s="4">
+        <v>26.220702505943002</v>
+      </c>
+      <c r="E34" s="4">
+        <v>42.737299999980003</v>
+      </c>
+      <c r="F34" s="4">
+        <v>30.790591979529999</v>
+      </c>
+      <c r="G34" s="4">
+        <v>10.224110000036001</v>
+      </c>
+      <c r="H34" s="4">
+        <v>3.5620584590000002E-3</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <v>26.38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <v>NL_on_North</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4">
+        <v>3.956</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <v>NL_on_South</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1.5129999999999999</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <v>NL_on_Holland_N</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>3.3380000000000001</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <v>NL_on_Holland_S</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2.6019999999999999</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <v>NL_on_Brabant</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <v>NL_on_Borssele</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1.325</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <v>NL_on_Rilland</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <v>NL_on_East</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <v>NL_on_Rilland</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0673C45E-4D24-4DF6-A916-90FC51EA202B}">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -6963,7 +8809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAA3A2B-6B0F-49D4-82DD-7D05E9C72186}">
   <dimension ref="A1:H26"/>
   <sheetViews>

--- a/cases/NorthSea/InstalledCapacity/ERAA_InstalledCapacity.xlsx
+++ b/cases/NorthSea/InstalledCapacity/ERAA_InstalledCapacity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea\InstalledCapacity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D716603-C378-410A-8C8B-BBB528BF6CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519EB44D-E66C-4E6B-B201-D0C995E513A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA100232-5CE4-4E54-8B37-51E6879CF7F2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA100232-5CE4-4E54-8B37-51E6879CF7F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="143">
   <si>
     <t>Nuclear</t>
   </si>
@@ -444,13 +444,52 @@
     <t>existing</t>
   </si>
   <si>
-    <t>NL00</t>
-  </si>
-  <si>
     <t>GW</t>
   </si>
   <si>
     <t>GWh</t>
+  </si>
+  <si>
+    <t>SteamReformer</t>
+  </si>
+  <si>
+    <t>onNL_NE</t>
+  </si>
+  <si>
+    <t>onNL_SE</t>
+  </si>
+  <si>
+    <t>onNL_NW</t>
+  </si>
+  <si>
+    <t>onNL_SW</t>
+  </si>
+  <si>
+    <t>onNL_CE</t>
+  </si>
+  <si>
+    <t>onNL_CW</t>
+  </si>
+  <si>
+    <t>onNL_E</t>
+  </si>
+  <si>
+    <t>onBE</t>
+  </si>
+  <si>
+    <t>onDE</t>
+  </si>
+  <si>
+    <t>onUK</t>
+  </si>
+  <si>
+    <t>onNOS</t>
+  </si>
+  <si>
+    <t>onDKW</t>
+  </si>
+  <si>
+    <t>onNL</t>
   </si>
 </sst>
 </file>
@@ -832,13 +871,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B4C478-9D3A-43B9-9E7E-23C535F18E69}">
-  <dimension ref="A1:BM29"/>
+  <dimension ref="A1:BL30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +900,7 @@
     <col min="64" max="64" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>46</v>
       </c>
@@ -871,8 +910,8 @@
       <c r="F1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" t="s">
-        <v>119</v>
+      <c r="G1" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="H1" t="s">
         <v>49</v>
@@ -886,8 +925,8 @@
       <c r="K1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" t="s">
-        <v>120</v>
+      <c r="L1" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="M1" t="s">
         <v>27</v>
@@ -898,8 +937,8 @@
       <c r="O1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
-        <v>121</v>
+      <c r="P1" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="Q1" t="s">
         <v>53</v>
@@ -968,7 +1007,7 @@
         <v>65</v>
       </c>
       <c r="AM1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AN1" t="s">
         <v>39</v>
@@ -976,8 +1015,8 @@
       <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
-        <v>123</v>
+      <c r="AP1" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="AQ1" t="s">
         <v>66</v>
@@ -1015,41 +1054,38 @@
       <c r="BB1" t="s">
         <v>73</v>
       </c>
-      <c r="BC1" t="s">
-        <v>122</v>
+      <c r="BC1" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="BD1" t="s">
         <v>45</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="BF1" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="BG1" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="BH1" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="BI1" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="BJ1" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="BK1" s="2" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="BL1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -1243,11 +1279,8 @@
       <c r="BL2">
         <v>0</v>
       </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:64" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -1440,11 +1473,8 @@
       <c r="BL3">
         <v>0</v>
       </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:64" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -1637,11 +1667,8 @@
       <c r="BL4">
         <v>0</v>
       </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>126</v>
       </c>
@@ -1834,11 +1861,8 @@
       <c r="BL5" s="2">
         <v>0</v>
       </c>
-      <c r="BM5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:64" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -2031,11 +2055,8 @@
       <c r="BL6">
         <v>0</v>
       </c>
-      <c r="BM6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -2228,11 +2249,8 @@
       <c r="BL7">
         <v>0</v>
       </c>
-      <c r="BM7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:64" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -2425,11 +2443,8 @@
       <c r="BL8">
         <v>0</v>
       </c>
-      <c r="BM8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>126</v>
       </c>
@@ -2622,11 +2637,8 @@
       <c r="BL9">
         <v>0</v>
       </c>
-      <c r="BM9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>126</v>
       </c>
@@ -2819,11 +2831,8 @@
       <c r="BL10">
         <v>0</v>
       </c>
-      <c r="BM10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>126</v>
       </c>
@@ -3016,11 +3025,8 @@
       <c r="BL11">
         <v>0</v>
       </c>
-      <c r="BM11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -3213,11 +3219,8 @@
       <c r="BL12">
         <v>0</v>
       </c>
-      <c r="BM12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -3410,11 +3413,8 @@
       <c r="BL13">
         <v>0</v>
       </c>
-      <c r="BM13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -3607,11 +3607,8 @@
       <c r="BL14">
         <v>0</v>
       </c>
-      <c r="BM14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -3804,11 +3801,8 @@
       <c r="BL15">
         <v>0</v>
       </c>
-      <c r="BM15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -4001,11 +3995,8 @@
       <c r="BL16">
         <v>0</v>
       </c>
-      <c r="BM16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -4198,11 +4189,8 @@
       <c r="BL17">
         <v>0</v>
       </c>
-      <c r="BM17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>126</v>
       </c>
@@ -4395,11 +4383,8 @@
       <c r="BL18">
         <v>0</v>
       </c>
-      <c r="BM18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:64" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -4592,11 +4577,8 @@
       <c r="BL19">
         <v>0</v>
       </c>
-      <c r="BM19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>126</v>
       </c>
@@ -4789,11 +4771,8 @@
       <c r="BL20">
         <v>0</v>
       </c>
-      <c r="BM20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>74</v>
       </c>
@@ -4983,11 +4962,8 @@
       <c r="BL21">
         <v>0</v>
       </c>
-      <c r="BM21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>74</v>
       </c>
@@ -5177,11 +5153,8 @@
       <c r="BL22">
         <v>0</v>
       </c>
-      <c r="BM22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>74</v>
       </c>
@@ -5371,11 +5344,8 @@
       <c r="BL23">
         <v>0</v>
       </c>
-      <c r="BM23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>74</v>
       </c>
@@ -5565,11 +5535,8 @@
       <c r="BL24">
         <v>0</v>
       </c>
-      <c r="BM24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>75</v>
       </c>
@@ -5759,11 +5726,8 @@
       <c r="BL25">
         <v>0</v>
       </c>
-      <c r="BM25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>75</v>
       </c>
@@ -5953,11 +5917,8 @@
       <c r="BL26">
         <v>0</v>
       </c>
-      <c r="BM26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>75</v>
       </c>
@@ -6147,11 +6108,8 @@
       <c r="BL27">
         <v>0</v>
       </c>
-      <c r="BM27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>75</v>
       </c>
@@ -6341,11 +6299,8 @@
       <c r="BL28">
         <v>0</v>
       </c>
-      <c r="BM28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>75</v>
       </c>
@@ -6535,8 +6490,52 @@
       <c r="BL29">
         <v>0</v>
       </c>
-      <c r="BM29">
-        <v>0</v>
+    </row>
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30">
+        <v>1000</v>
+      </c>
+      <c r="L30">
+        <v>15000</v>
+      </c>
+      <c r="P30">
+        <v>500</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>1500</v>
+      </c>
+      <c r="BF30">
+        <v>1500</v>
+      </c>
+      <c r="BG30">
+        <v>1500</v>
+      </c>
+      <c r="BH30">
+        <v>1500</v>
+      </c>
+      <c r="BI30">
+        <v>1500</v>
+      </c>
+      <c r="BJ30">
+        <v>1500</v>
+      </c>
+      <c r="BL30">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
@@ -7151,7 +7150,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -7215,7 +7214,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -7279,7 +7278,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -7343,7 +7342,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -7407,7 +7406,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -7471,7 +7470,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -7535,7 +7534,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -7599,7 +7598,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -7663,7 +7662,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -7727,7 +7726,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
